--- a/7/2/3/1/Títulos de deuda 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/3/1/Títulos de deuda 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG75"/>
+  <dimension ref="A1:BG76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13904,7 +13907,7 @@
         <v>22547</v>
       </c>
       <c r="C75">
-        <v>9876</v>
+        <v>9966</v>
       </c>
       <c r="D75">
         <v>99</v>
@@ -13913,13 +13916,13 @@
         <v>282</v>
       </c>
       <c r="F75">
-        <v>994</v>
+        <v>919</v>
       </c>
       <c r="G75">
         <v>3200</v>
       </c>
       <c r="H75">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I75">
         <v>7691</v>
@@ -13928,49 +13931,49 @@
         <v>187</v>
       </c>
       <c r="K75">
-        <v>58986</v>
+        <v>58995</v>
       </c>
       <c r="L75">
         <v>7331</v>
       </c>
       <c r="M75">
-        <v>2309</v>
+        <v>2121</v>
       </c>
       <c r="N75">
-        <v>7296</v>
+        <v>7289</v>
       </c>
       <c r="O75">
         <v>433</v>
       </c>
       <c r="P75">
-        <v>1246</v>
+        <v>1449</v>
       </c>
       <c r="Q75">
         <v>22699</v>
       </c>
       <c r="R75">
-        <v>6553</v>
+        <v>6552</v>
       </c>
       <c r="S75">
         <v>1884</v>
       </c>
       <c r="T75">
-        <v>9235</v>
+        <v>9238</v>
       </c>
       <c r="U75">
-        <v>10155</v>
+        <v>10510</v>
       </c>
       <c r="V75">
         <v>509</v>
       </c>
       <c r="W75">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="X75">
         <v>0</v>
       </c>
       <c r="Y75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z75">
         <v>4</v>
@@ -13985,7 +13988,7 @@
         <v>388</v>
       </c>
       <c r="AD75">
-        <v>2505</v>
+        <v>2861</v>
       </c>
       <c r="AE75">
         <v>73075</v>
@@ -14015,13 +14018,13 @@
         <v>23943</v>
       </c>
       <c r="AN75">
-        <v>71412</v>
+        <v>70514</v>
       </c>
       <c r="AO75">
         <v>338</v>
       </c>
       <c r="AP75">
-        <v>10381</v>
+        <v>10009</v>
       </c>
       <c r="AQ75">
         <v>221</v>
@@ -14036,16 +14039,16 @@
         <v>13120</v>
       </c>
       <c r="AU75">
-        <v>13850</v>
+        <v>13692</v>
       </c>
       <c r="AV75">
         <v>319</v>
       </c>
       <c r="AW75">
-        <v>33182</v>
+        <v>32815</v>
       </c>
       <c r="AX75">
-        <v>54931</v>
+        <v>55560</v>
       </c>
       <c r="AY75">
         <v>27586</v>
@@ -14054,25 +14057,204 @@
         <v>1323</v>
       </c>
       <c r="BA75">
-        <v>3164</v>
+        <v>3543</v>
       </c>
       <c r="BB75">
         <v>11201</v>
       </c>
       <c r="BC75">
-        <v>5220</v>
+        <v>5127</v>
       </c>
       <c r="BD75">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="BE75">
         <v>1709</v>
       </c>
       <c r="BF75">
-        <v>3930</v>
+        <v>4242</v>
       </c>
       <c r="BG75">
         <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:59">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76">
+        <v>31889</v>
+      </c>
+      <c r="C76">
+        <v>17997</v>
+      </c>
+      <c r="D76">
+        <v>198</v>
+      </c>
+      <c r="E76">
+        <v>152</v>
+      </c>
+      <c r="F76">
+        <v>2215</v>
+      </c>
+      <c r="G76">
+        <v>3275</v>
+      </c>
+      <c r="H76">
+        <v>169</v>
+      </c>
+      <c r="I76">
+        <v>7873</v>
+      </c>
+      <c r="J76">
+        <v>9</v>
+      </c>
+      <c r="K76">
+        <v>54803</v>
+      </c>
+      <c r="L76">
+        <v>9044</v>
+      </c>
+      <c r="M76">
+        <v>1840</v>
+      </c>
+      <c r="N76">
+        <v>6263</v>
+      </c>
+      <c r="O76">
+        <v>437</v>
+      </c>
+      <c r="P76">
+        <v>753</v>
+      </c>
+      <c r="Q76">
+        <v>19499</v>
+      </c>
+      <c r="R76">
+        <v>5984</v>
+      </c>
+      <c r="S76">
+        <v>1816</v>
+      </c>
+      <c r="T76">
+        <v>9165</v>
+      </c>
+      <c r="U76">
+        <v>10251</v>
+      </c>
+      <c r="V76">
+        <v>384</v>
+      </c>
+      <c r="W76">
+        <v>1804</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>302</v>
+      </c>
+      <c r="Z76">
+        <v>4</v>
+      </c>
+      <c r="AA76">
+        <v>1373</v>
+      </c>
+      <c r="AB76">
+        <v>3062</v>
+      </c>
+      <c r="AC76">
+        <v>458</v>
+      </c>
+      <c r="AD76">
+        <v>2865</v>
+      </c>
+      <c r="AE76">
+        <v>72568</v>
+      </c>
+      <c r="AF76">
+        <v>16925</v>
+      </c>
+      <c r="AG76">
+        <v>1762</v>
+      </c>
+      <c r="AH76">
+        <v>62</v>
+      </c>
+      <c r="AI76">
+        <v>791</v>
+      </c>
+      <c r="AJ76">
+        <v>24476</v>
+      </c>
+      <c r="AK76">
+        <v>1165</v>
+      </c>
+      <c r="AL76">
+        <v>302</v>
+      </c>
+      <c r="AM76">
+        <v>27083</v>
+      </c>
+      <c r="AN76">
+        <v>69533</v>
+      </c>
+      <c r="AO76">
+        <v>284</v>
+      </c>
+      <c r="AP76">
+        <v>10236</v>
+      </c>
+      <c r="AQ76">
+        <v>223</v>
+      </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>12203</v>
+      </c>
+      <c r="AU76">
+        <v>12111</v>
+      </c>
+      <c r="AV76">
+        <v>300</v>
+      </c>
+      <c r="AW76">
+        <v>34176</v>
+      </c>
+      <c r="AX76">
+        <v>56444</v>
+      </c>
+      <c r="AY76">
+        <v>29685</v>
+      </c>
+      <c r="AZ76">
+        <v>1840</v>
+      </c>
+      <c r="BA76">
+        <v>3734</v>
+      </c>
+      <c r="BB76">
+        <v>8706</v>
+      </c>
+      <c r="BC76">
+        <v>5793</v>
+      </c>
+      <c r="BD76">
+        <v>721</v>
+      </c>
+      <c r="BE76">
+        <v>1583</v>
+      </c>
+      <c r="BF76">
+        <v>4265</v>
+      </c>
+      <c r="BG76">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
